--- a/data/inversionistas_input.xlsx
+++ b/data/inversionistas_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft\Planigrupo\Sitio Web\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11F23A2-F57A-4A84-86CD-FD13124DE306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA8C05E-800F-4155-BEB9-FBF5083C8073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="615" windowWidth="20610" windowHeight="14160" xr2:uid="{562CD49C-6CFB-B54D-B1A7-F1CF16783197}"/>
+    <workbookView xWindow="4995" yWindow="885" windowWidth="20610" windowHeight="14160" xr2:uid="{562CD49C-6CFB-B54D-B1A7-F1CF16783197}"/>
   </bookViews>
   <sheets>
     <sheet name="Res Fin 2do trim 2023" sheetId="1" r:id="rId1"/>
@@ -1226,7 +1226,7 @@
     <t>59.6%</t>
   </si>
   <si>
-    <t>109.40%</t>
+    <t>9.40%</t>
   </si>
 </sst>
 </file>

--- a/data/inversionistas_input.xlsx
+++ b/data/inversionistas_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft\Planigrupo\Sitio Web\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA8C05E-800F-4155-BEB9-FBF5083C8073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22862F88-4554-40F9-8DED-F59B6FB7C3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="885" windowWidth="20610" windowHeight="14160" xr2:uid="{562CD49C-6CFB-B54D-B1A7-F1CF16783197}"/>
+    <workbookView xWindow="1125" yWindow="615" windowWidth="20610" windowHeight="14160" xr2:uid="{562CD49C-6CFB-B54D-B1A7-F1CF16783197}"/>
   </bookViews>
   <sheets>
     <sheet name="Res Fin 2do trim 2023" sheetId="1" r:id="rId1"/>

--- a/data/inversionistas_input.xlsx
+++ b/data/inversionistas_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft\Planigrupo\Sitio Web\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22862F88-4554-40F9-8DED-F59B6FB7C3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF0733-A799-44B1-B510-4D321BC5ADCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="615" windowWidth="20610" windowHeight="14160" xr2:uid="{562CD49C-6CFB-B54D-B1A7-F1CF16783197}"/>
+    <workbookView xWindow="4005" yWindow="2235" windowWidth="20610" windowHeight="12555" xr2:uid="{562CD49C-6CFB-B54D-B1A7-F1CF16783197}"/>
   </bookViews>
   <sheets>
     <sheet name="Res Fin 2do trim 2023" sheetId="1" r:id="rId1"/>
@@ -1226,7 +1226,7 @@
     <t>59.6%</t>
   </si>
   <si>
-    <t>9.40%</t>
+    <t>RAMIRO LA PERSONA</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1683,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/inversionistas_input.xlsx
+++ b/data/inversionistas_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft\Planigrupo\Sitio Web\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFF0733-A799-44B1-B510-4D321BC5ADCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D7A218-18BB-4178-A419-07E5436CE2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4005" yWindow="2235" windowWidth="20610" windowHeight="12555" xr2:uid="{562CD49C-6CFB-B54D-B1A7-F1CF16783197}"/>
   </bookViews>
@@ -1226,7 +1226,7 @@
     <t>59.6%</t>
   </si>
   <si>
-    <t>RAMIRO LA PERSONA</t>
+    <t>94.50%</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1683,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/inversionistas_input.xlsx
+++ b/data/inversionistas_input.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="387">
   <si>
     <r>
       <rPr>
@@ -71,10 +71,13 @@
     <t xml:space="preserve">Ingresos totales</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.50%</t>
+    <t xml:space="preserve">341,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7% </t>
   </si>
   <si>
     <t xml:space="preserve">Net income</t>
@@ -102,10 +105,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">-55.30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-50.50%</t>
+    <t xml:space="preserve">(220.2%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(79.8%) </t>
   </si>
   <si>
     <t xml:space="preserve">Estimate for uncollectible accounts[4]</t>
@@ -114,10 +117,10 @@
     <t xml:space="preserve">Ingresos totales- netos</t>
   </si>
   <si>
-    <t xml:space="preserve">10.50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.10%</t>
+    <t xml:space="preserve">4.5% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1% </t>
   </si>
   <si>
     <t xml:space="preserve">Total Net Income</t>
@@ -126,10 +129,10 @@
     <t xml:space="preserve">NOI</t>
   </si>
   <si>
-    <t xml:space="preserve">11.40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.20%</t>
+    <t xml:space="preserve">6.6% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6% </t>
   </si>
   <si>
     <r>
@@ -154,19 +157,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">82.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10%</t>
+    <t xml:space="preserve">84.7% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.0% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.01% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.9% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1% </t>
   </si>
   <si>
     <t xml:space="preserve">NOI Margin[2]</t>
@@ -175,10 +181,10 @@
     <t xml:space="preserve">EBITDA</t>
   </si>
   <si>
-    <t xml:space="preserve">24.90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.80%</t>
+    <t xml:space="preserve">(1.1%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6% </t>
   </si>
   <si>
     <r>
@@ -203,22 +209,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">64.5% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60%</t>
+    <t xml:space="preserve">65.7% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.7%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.2% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5% </t>
   </si>
   <si>
     <t xml:space="preserve">EBITDA Margin[2]</t>
@@ -227,10 +233,10 @@
     <t xml:space="preserve">FFO</t>
   </si>
   <si>
-    <t xml:space="preserve">237.50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.50%</t>
+    <t xml:space="preserve">(12.3%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.3% </t>
   </si>
   <si>
     <t xml:space="preserve">FFO[3]</t>
@@ -239,10 +245,10 @@
     <t xml:space="preserve">FFO Ajustado</t>
   </si>
   <si>
-    <t xml:space="preserve">245.80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.10%</t>
+    <t xml:space="preserve">(62.3%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">223.1% </t>
   </si>
   <si>
     <t xml:space="preserve">Adjusted FFO</t>
@@ -251,10 +257,7 @@
     <t xml:space="preserve">Deuda Total (millones</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.00%</t>
+    <t xml:space="preserve">(2.5%) </t>
   </si>
   <si>
     <t xml:space="preserve">Total Debt (Millons)</t>
@@ -263,16 +266,13 @@
     <t xml:space="preserve">LTV</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.50%</t>
+    <t xml:space="preserve">34.8% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.5%) </t>
   </si>
   <si>
     <t xml:space="preserve">Prospecto de Colocación</t>
@@ -1272,10 +1272,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1423,23 +1422,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1447,39 +1442,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1735,328 +1734,328 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="33.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>347173</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>319535</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>689735</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>630624</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="5" t="n">
+        <v>335117</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="E2" s="5" t="n">
+        <v>1380630</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>1293523</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>-4118</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>-9211</v>
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>4488</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>-3734</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>-8903</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>-17998</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>-6918</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>-34193</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>343055</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>310324</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>680832</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>612626</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="B4" s="5" t="n">
+        <v>346338</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>331383</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="E4" s="5" t="n">
+        <v>1373712</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1259330</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>283825</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>254822</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>559980</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>503502</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="B5" s="5" t="n">
+        <v>293263</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>275116</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
+      <c r="E5" s="5" t="n">
+        <v>1140303</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1031110</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>221261</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>177138</v>
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>227657</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>230103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>429674</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>364881</v>
-      </c>
-      <c r="G7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>875616</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>770649</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="G8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>55207</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>16359</v>
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>68939</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>78572</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>129865</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>77527</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="E9" s="5" t="n">
+        <v>284932</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>109476</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>51743</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>14964</v>
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>19809</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>52513</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>122620</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>72103</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="E10" s="5" t="n">
+        <v>224548</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>69492</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>5193</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>5248</v>
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>5118</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5251</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>5193</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>5248</v>
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>5118</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>5251</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="H11" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>51</v>
+      <c r="H12" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2106,15 +2105,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2122,10 +2121,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2133,10 +2132,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2167,14 +2166,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2182,10 +2181,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2193,10 +2192,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2204,10 +2203,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2215,10 +2214,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2226,10 +2225,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2237,10 +2236,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2272,8 +2271,8 @@
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="56.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,7 +2284,7 @@
       <c r="A2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2296,7 +2295,7 @@
       <c r="A3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -2307,7 +2306,7 @@
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2318,7 +2317,7 @@
       <c r="A5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2334,7 +2333,7 @@
       <c r="A18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -2345,7 +2344,7 @@
       <c r="A19" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2356,7 +2355,7 @@
       <c r="A20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -2367,7 +2366,7 @@
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -2378,7 +2377,7 @@
       <c r="A22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -2389,7 +2388,7 @@
       <c r="A23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2400,7 +2399,7 @@
       <c r="A24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -2411,7 +2410,7 @@
       <c r="A25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -2427,7 +2426,7 @@
       <c r="A33" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -2438,7 +2437,7 @@
       <c r="A34" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -2449,7 +2448,7 @@
       <c r="A35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -2460,7 +2459,7 @@
       <c r="A36" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -2471,7 +2470,7 @@
       <c r="A37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -2482,7 +2481,7 @@
       <c r="A38" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -2493,7 +2492,7 @@
       <c r="A39" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2504,7 +2503,7 @@
       <c r="A40" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -2515,7 +2514,7 @@
       <c r="A41" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -2531,7 +2530,7 @@
       <c r="A48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -2542,7 +2541,7 @@
       <c r="A49" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -2553,7 +2552,7 @@
       <c r="A50" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -2564,7 +2563,7 @@
       <c r="A51" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -2575,7 +2574,7 @@
       <c r="A52" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -2586,7 +2585,7 @@
       <c r="A53" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -2597,7 +2596,7 @@
       <c r="A54" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -2608,7 +2607,7 @@
       <c r="A55" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -2624,7 +2623,7 @@
       <c r="A64" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -2636,7 +2635,7 @@
       <c r="A65" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C65" s="10" t="s">
@@ -2647,7 +2646,7 @@
       <c r="A66" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -2658,7 +2657,7 @@
       <c r="A67" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -2669,7 +2668,7 @@
       <c r="A68" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -2680,7 +2679,7 @@
       <c r="A69" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -2691,7 +2690,7 @@
       <c r="A70" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -2702,7 +2701,7 @@
       <c r="A71" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -2718,7 +2717,7 @@
       <c r="A80" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -2729,7 +2728,7 @@
       <c r="A81" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C81" s="10" t="s">
@@ -2740,7 +2739,7 @@
       <c r="A82" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -2751,7 +2750,7 @@
       <c r="A83" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -2762,7 +2761,7 @@
       <c r="A84" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -2773,7 +2772,7 @@
       <c r="A85" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C85" s="10" t="s">
@@ -2784,7 +2783,7 @@
       <c r="A86" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C86" s="8" t="s">
@@ -2795,7 +2794,7 @@
       <c r="A87" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C87" s="10" t="s">
@@ -2811,7 +2810,7 @@
       <c r="A96" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -2822,7 +2821,7 @@
       <c r="A97" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C97" s="10" t="s">
@@ -2833,7 +2832,7 @@
       <c r="A98" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -2844,7 +2843,7 @@
       <c r="A99" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C99" s="10" t="s">
@@ -2855,7 +2854,7 @@
       <c r="A100" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C100" s="8" t="s">
@@ -2866,7 +2865,7 @@
       <c r="A101" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -2877,7 +2876,7 @@
       <c r="A102" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C102" s="8" t="s">
@@ -2888,7 +2887,7 @@
       <c r="A103" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C103" s="10" t="s">
@@ -2904,7 +2903,7 @@
       <c r="A113" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C113" s="8" t="s">
@@ -2915,7 +2914,7 @@
       <c r="A114" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C114" s="10" t="s">
@@ -2926,7 +2925,7 @@
       <c r="A115" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -2937,7 +2936,7 @@
       <c r="A116" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -2948,7 +2947,7 @@
       <c r="A117" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -2982,15 +2981,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2998,10 +2997,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3009,10 +3008,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -3020,10 +3019,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -3054,8 +3053,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,10 +3063,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3075,10 +3074,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -3094,7 +3093,7 @@
       <c r="A18" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -3102,10 +3101,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3113,10 +3112,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3124,10 +3123,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3140,10 +3139,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -3151,10 +3150,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -3162,10 +3161,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -3173,10 +3172,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -3189,10 +3188,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -3200,10 +3199,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -3211,10 +3210,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -3222,10 +3221,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -3238,10 +3237,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -3249,10 +3248,10 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -3260,10 +3259,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -3271,10 +3270,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -3287,10 +3286,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -3298,10 +3297,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -3309,10 +3308,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -3320,10 +3319,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -3336,10 +3335,10 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -3347,10 +3346,10 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C99" s="8" t="s">
@@ -3358,10 +3357,10 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C100" s="8" t="s">
@@ -3369,10 +3368,10 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C101" s="8" t="s">
@@ -3385,10 +3384,10 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C114" s="8" t="s">
@@ -3396,10 +3395,10 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -3407,10 +3406,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C116" s="8" t="s">
@@ -3418,10 +3417,10 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -3452,9 +3451,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,10 +3462,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -3474,10 +3473,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -3485,10 +3484,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -3501,10 +3500,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -3523,10 +3522,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -3534,10 +3533,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3545,10 +3544,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -3556,10 +3555,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -3567,10 +3566,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3578,10 +3577,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -3589,10 +3588,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -3600,10 +3599,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -3611,10 +3610,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -3622,10 +3621,10 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -3638,10 +3637,10 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -3649,10 +3648,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -3660,10 +3659,10 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -3671,10 +3670,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>279</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -3682,10 +3681,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -3693,10 +3692,10 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -3704,10 +3703,10 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C40" s="13" t="s">
@@ -3715,10 +3714,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C41" s="13" t="s">
@@ -3726,10 +3725,10 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -3737,10 +3736,10 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -3748,10 +3747,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -3759,10 +3758,10 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -3775,10 +3774,10 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -3786,10 +3785,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -3797,10 +3796,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -3808,10 +3807,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -3819,10 +3818,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -3830,10 +3829,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -3841,10 +3840,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -3852,10 +3851,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C57" s="13" t="s">
@@ -3868,10 +3867,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -3879,10 +3878,10 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C67" s="13" t="s">
@@ -3890,10 +3889,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -3924,15 +3923,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>317</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -3940,10 +3939,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -3975,8 +3974,8 @@
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="65.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,7 +3987,7 @@
       <c r="A2" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3999,7 +3998,7 @@
       <c r="A3" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -4010,7 +4009,7 @@
       <c r="A4" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -4021,7 +4020,7 @@
       <c r="A5" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>326</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4032,7 +4031,7 @@
       <c r="A6" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>326</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -4043,7 +4042,7 @@
       <c r="A7" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -4054,7 +4053,7 @@
       <c r="A8" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>331</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -4065,7 +4064,7 @@
       <c r="A9" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -4081,7 +4080,7 @@
       <c r="A18" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -4092,7 +4091,7 @@
       <c r="A19" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -4103,7 +4102,7 @@
       <c r="A20" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -4114,7 +4113,7 @@
       <c r="A21" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -4125,7 +4124,7 @@
       <c r="A22" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -4136,7 +4135,7 @@
       <c r="A23" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -4147,7 +4146,7 @@
       <c r="A24" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>347</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -4158,7 +4157,7 @@
       <c r="A25" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -4169,7 +4168,7 @@
       <c r="A26" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>351</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -4180,7 +4179,7 @@
       <c r="A27" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>353</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -4196,7 +4195,7 @@
       <c r="A34" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>355</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -4207,7 +4206,7 @@
       <c r="A35" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>357</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -4218,7 +4217,7 @@
       <c r="A36" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>359</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -4229,7 +4228,7 @@
       <c r="A37" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>361</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -4240,7 +4239,7 @@
       <c r="A38" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>363</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -4251,7 +4250,7 @@
       <c r="A39" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -4262,7 +4261,7 @@
       <c r="A40" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -4273,7 +4272,7 @@
       <c r="A41" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -4284,7 +4283,7 @@
       <c r="A42" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>370</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -4295,7 +4294,7 @@
       <c r="A43" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -4306,7 +4305,7 @@
       <c r="A44" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -4322,7 +4321,7 @@
       <c r="A50" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -4333,7 +4332,7 @@
       <c r="A51" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>378</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -4344,7 +4343,7 @@
       <c r="A52" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>380</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -4355,7 +4354,7 @@
       <c r="A53" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -4366,7 +4365,7 @@
       <c r="A54" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>384</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -4377,7 +4376,7 @@
       <c r="A55" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C55" s="8" t="s">
